--- a/VHDL_files/Pin_connection.xlsx
+++ b/VHDL_files/Pin_connection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="19120" yWindow="-20" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="210">
   <si>
     <t>Pin connection for XEM6010</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Wrong connection as of Oct 5, 2015</t>
+  </si>
+  <si>
+    <t>changed to J20 (GCLK5_1) in the Nov 2015 version</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1399,7 +1402,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1519,8 +1522,11 @@
       <c r="C43" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>49</v>
       </c>
